--- a/base.xlsx
+++ b/base.xlsx
@@ -379,7 +379,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A3" activeCellId="0" pane="topLeft" sqref="A3:D3"/>
@@ -461,6 +461,96 @@
     <row customHeight="1" ht="12.8" r="4" s="3">
       <c r="A4" s="2" t="n"/>
       <c r="B4" s="2" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Dev</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>19dcs053</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>Shreyash</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>19dcs072</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>Shreyash</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>19dcs072</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>Shreyash</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>19DCS072</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>Dev</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>19DCS054</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>

--- a/base.xlsx
+++ b/base.xlsx
@@ -379,16 +379,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A3" activeCellId="0" pane="topLeft" sqref="A3:D3"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100">
+      <selection activeCell="D5" activeCellId="0" pane="topLeft" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.5703125" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
     <col customWidth="1" max="1" min="1" style="2" width="15.14"/>
     <col customWidth="1" max="2" min="2" style="2" width="14.59"/>
+    <col customWidth="1" max="3" min="3" style="2" width="11.06"/>
+    <col customWidth="1" max="1025" min="4" style="2" width="8.859999999999999"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="12.8" r="1" s="3">
@@ -421,7 +423,7 @@
     <row customHeight="1" ht="12.8" r="2" s="3">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Dev Kotak</t>
+          <t>Dev</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -430,10 +432,10 @@
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E2" s="2">
         <f>(C2/D2)*100</f>
@@ -443,115 +445,73 @@
     <row customHeight="1" ht="12.8" r="3" s="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Henil</t>
+          <t>Gracy</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>19DCS025</t>
+          <t>19DCS088</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="E3" s="2">
+        <f>(C3/D3)*100</f>
+        <v/>
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="4" s="3">
-      <c r="A4" s="2" t="n"/>
-      <c r="B4" s="2" t="n"/>
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Shreyash</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>19DCS072</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2">
+        <f>(C4/D4)*100</f>
+        <v/>
+      </c>
     </row>
-    <row r="5">
+    <row customHeight="1" ht="12.8" r="5" s="3">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>Dev</t>
+          <t>Henil</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>19dcs053</t>
+          <t>19DCS025</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="E5" s="2">
+        <f>(C5/D5)*100</f>
+        <v/>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>Shreyash</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>19dcs072</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>Shreyash</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>19dcs072</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>Shreyash</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
-        <is>
-          <t>19DCS072</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>Dev</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
-        <is>
-          <t>19DCS054</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
+    <row customHeight="1" ht="12.8" r="6" s="3"/>
+    <row customHeight="1" ht="12.8" r="7" s="3"/>
+    <row customHeight="1" ht="12.8" r="8" s="3"/>
+    <row customHeight="1" ht="12.8" r="9" s="3"/>
   </sheetData>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
